--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,54 @@
   </si>
   <si>
     <t>Mostly bus and subway</t>
+  </si>
+  <si>
+    <t>Zilin(Tim) Wang</t>
+  </si>
+  <si>
+    <t>vivalavida1424@gmail.com</t>
+  </si>
+  <si>
+    <t>Monday~Thursday</t>
+  </si>
+  <si>
+    <t>Subway, LIRR, Metro North.</t>
+  </si>
+  <si>
+    <t>Lucy Li</t>
+  </si>
+  <si>
+    <t>li.lucy.js@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon, Wed, Fri</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>Laura Goon</t>
+  </si>
+  <si>
+    <t>laura.gooon@gmail.com</t>
+  </si>
+  <si>
+    <t>Tuesdays, Wednesdays, Thursdays</t>
+  </si>
+  <si>
+    <t>Subway !!</t>
+  </si>
+  <si>
+    <t>Dimitri Fedorov</t>
+  </si>
+  <si>
+    <t>dimkabest@gmail.com</t>
+  </si>
+  <si>
+    <t>Everyday</t>
+  </si>
+  <si>
+    <t>Buses (Brooklyn, Manhattan)</t>
   </si>
 </sst>
 </file>
@@ -162,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -438,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -517,6 +565,74 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4689</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3389</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3909</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4551</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -113,6 +113,39 @@
   </si>
   <si>
     <t>Buses (Brooklyn, Manhattan)</t>
+  </si>
+  <si>
+    <t>Michael Xu</t>
+  </si>
+  <si>
+    <t>michael.xu000@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon, Tues, thu</t>
+  </si>
+  <si>
+    <t>Aviation Subway Cars</t>
+  </si>
+  <si>
+    <t>Alexander Lu</t>
+  </si>
+  <si>
+    <t>alexblabla4@gmail.com</t>
+  </si>
+  <si>
+    <t>Monday, Tuesday, Wednesday</t>
+  </si>
+  <si>
+    <t>LIRR and Subway</t>
+  </si>
+  <si>
+    <t>Adam Wickham</t>
+  </si>
+  <si>
+    <t>awickham3@gmail.com</t>
+  </si>
+  <si>
+    <t>Monday, Friday</t>
   </si>
 </sst>
 </file>
@@ -210,8 +243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -486,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -631,6 +664,57 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4884</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4518</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3287</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>Monday, Friday</t>
+  </si>
+  <si>
+    <t>Tahseen Chowdhury</t>
+  </si>
+  <si>
+    <t>tahseenchowdhury@gmail.com</t>
+  </si>
+  <si>
+    <t>Monday, Tuesday</t>
+  </si>
+  <si>
+    <t>Walee Khan</t>
+  </si>
+  <si>
+    <t>kswy26@gmail.com</t>
+  </si>
+  <si>
+    <t>Monday, Tuesday, Wednesday, Thursday(mostly)</t>
+  </si>
+  <si>
+    <t>Subway (7 train)</t>
+  </si>
+  <si>
+    <t>Gabriela Loh</t>
+  </si>
+  <si>
+    <t>gabriela.loh@gmail.com</t>
+  </si>
+  <si>
+    <t>Mondays, Tuesdays, Thursdays</t>
   </si>
 </sst>
 </file>
@@ -243,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -519,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -714,6 +744,57 @@
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4435</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4473</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4951</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>Mondays, Tuesdays, Thursdays</t>
+  </si>
+  <si>
+    <t>Max Zlotskiy</t>
+  </si>
+  <si>
+    <t>max.zlotskiy@gmail.com</t>
+  </si>
+  <si>
+    <t>Friday, Tuesday</t>
+  </si>
+  <si>
+    <t>Subway?</t>
+  </si>
+  <si>
+    <t>Alex Serbanescu</t>
+  </si>
+  <si>
+    <t>alexserbanescu8@gmail.com</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>SUBWAY ALL DA WAY</t>
   </si>
 </sst>
 </file>
@@ -273,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -549,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -796,6 +820,40 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4775</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3598</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>SUBWAY ALL DA WAY</t>
+  </si>
+  <si>
+    <t>Andrew Chen</t>
+  </si>
+  <si>
+    <t>andrewxinchen@gmail.com</t>
+  </si>
+  <si>
+    <t>tuesday, thursday</t>
+  </si>
+  <si>
+    <t>subway, nyc commuter rail in general, long distance rail</t>
   </si>
 </sst>
 </file>
@@ -297,8 +309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -573,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -854,6 +866,23 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4035</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>subway, nyc commuter rail in general, long distance rail</t>
+  </si>
+  <si>
+    <t>Jacqueline Cao</t>
+  </si>
+  <si>
+    <t>jacquelinecaousa@gmail.com</t>
+  </si>
+  <si>
+    <t>everyday</t>
   </si>
 </sst>
 </file>
@@ -309,8 +318,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
-  <autoFilter ref="A1:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E17"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -585,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -883,6 +892,23 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4442</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>everyday</t>
+  </si>
+  <si>
+    <t>subway</t>
   </si>
 </sst>
 </file>
@@ -318,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -594,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -909,6 +912,23 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4951</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -322,7 +322,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E18"/>
+  <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -322,7 +322,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19"/>
+  <autoFilter ref="A1:E18"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>

--- a/Sign up Sheet.xlsx
+++ b/Sign up Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>subway</t>
+  </si>
+  <si>
+    <t>Raihan Miah</t>
+  </si>
+  <si>
+    <t>raihanmiah8@gmail.com</t>
+  </si>
+  <si>
+    <t>Not on Robotics</t>
+  </si>
+  <si>
+    <t>The world :D</t>
   </si>
 </sst>
 </file>
@@ -321,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Email"/>
@@ -597,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -929,6 +941,23 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4627</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
